--- a/data/WIKIDATA/Contributions/relation_entre_objets.xlsx
+++ b/data/WIKIDATA/Contributions/relation_entre_objets.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldebisschop/Documents/GitHub/FacilityList/data/WIKIDATA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldebisschop/Documents/GitHub/FacilityList/data/WIKIDATA/Contributions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D1716A96-22FD-A341-82CB-D41C0631B1BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B513DE26-0B9A-D440-963B-F5E19AC1DB3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="500" windowWidth="10000" windowHeight="15500" activeTab="2"/>
+    <workbookView xWindow="15600" yWindow="500" windowWidth="10000" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classeur1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="75">
   <si>
     <t xml:space="preserve"> space observatory</t>
   </si>
@@ -246,62 +244,14 @@
     <t>human-made geographic feature</t>
   </si>
   <si>
-    <t>info manquantes</t>
-  </si>
-  <si>
-    <t>score faible ???</t>
-  </si>
-  <si>
-    <t>pas de match</t>
-  </si>
-  <si>
-    <t>Beam</t>
-  </si>
-  <si>
-    <t>COS A</t>
-  </si>
-  <si>
-    <t>GRASP</t>
-  </si>
-  <si>
-    <t>LAS (Q907773)</t>
-  </si>
-  <si>
-    <t>QUASAT</t>
-  </si>
-  <si>
-    <t>OSO-J</t>
-  </si>
-  <si>
-    <t>OV1-7</t>
-  </si>
-  <si>
-    <t>Spectrum-X-Gamma</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Atlas 1 / STS 45</t>
-  </si>
-  <si>
-    <t>CXBN 2</t>
-  </si>
-  <si>
-    <t>Space Shuttle (Q48806)</t>
-  </si>
-  <si>
     <t>robo</t>
-  </si>
-  <si>
-    <t>Atlas 4</t>
-  </si>
-  <si>
-    <t>OSO-K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -443,18 +393,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF993300"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="67">
@@ -1075,7 +1013,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1083,145 +1021,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1230,22 +1098,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1615,10 +1551,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <selection activeCell="C38" sqref="B38:C40"/>
     </sheetView>
   </sheetViews>
@@ -1632,1441 +1568,1441 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="54"/>
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="28" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="57"/>
+      <c r="B16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="38" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="30" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="38" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="38" t="s">
+      <c r="A27" s="39"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="41"/>
-      <c r="B29" s="43" t="s">
+      <c r="A29" s="52"/>
+      <c r="B29" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="46" t="s">
+      <c r="A30" s="52"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="46" t="s">
+      <c r="A32" s="53"/>
+      <c r="B32" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="49"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="33" t="s">
+      <c r="C38" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="39" t="s">
+      <c r="F38" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="3"/>
+      <c r="G38" s="2"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="3"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="2"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="38" t="s">
+      <c r="A40" s="49"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="33" t="s">
+      <c r="A43" s="49"/>
+      <c r="B43" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="38" t="s">
+      <c r="A45" s="49"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="49"/>
+      <c r="B48" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="49"/>
+      <c r="B51" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="3" t="s">
+      <c r="A56" s="49"/>
+      <c r="B56" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="3" t="s">
+      <c r="A59" s="49"/>
+      <c r="B59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3" t="s">
+      <c r="A65" s="49"/>
+      <c r="B65" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+      <c r="B66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
+      <c r="B69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="9" t="s">
+      <c r="A71" s="49"/>
+      <c r="B71" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
+      <c r="A72" s="49"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
+      <c r="A74" s="49"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="3" t="s">
+      <c r="A75" s="49"/>
+      <c r="B75" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
+      <c r="A77" s="49"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="30" t="s">
+      <c r="A78" s="49"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="33" t="s">
+      <c r="D78" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E78" s="36" t="s">
+      <c r="E78" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F78" s="39" t="s">
+      <c r="F78" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G78" s="3"/>
+      <c r="G78" s="2"/>
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G79" s="3"/>
+      <c r="A79" s="49"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" s="2"/>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="2"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="38" t="s">
+      <c r="A80" s="49"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
-      <c r="B81" s="3" t="s">
+      <c r="A81" s="49"/>
+      <c r="B81" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="30" t="s">
+      <c r="D81" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E81" s="33" t="s">
+      <c r="E81" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F81" s="36" t="s">
+      <c r="F81" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G81" s="39" t="s">
+      <c r="G81" s="20" t="s">
         <v>24</v>
       </c>
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="10" t="s">
+      <c r="A82" s="49"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="38" t="s">
+      <c r="A83" s="49"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G83" s="3"/>
+      <c r="G83" s="2"/>
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
+      <c r="A85" s="49"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="2"/>
-      <c r="B86" s="3" t="s">
+      <c r="A86" s="49"/>
+      <c r="B86" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
+      <c r="A87" s="49"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C88" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="30" t="s">
+      <c r="D88" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E88" s="33" t="s">
+      <c r="E88" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F88" s="36" t="s">
+      <c r="F88" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G88" s="39" t="s">
+      <c r="G88" s="20" t="s">
         <v>24</v>
       </c>
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="2"/>
-      <c r="B89" s="4" t="s">
+      <c r="A89" s="49"/>
+      <c r="B89" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="10" t="s">
+      <c r="C89" s="36"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="38" t="s">
+      <c r="A90" s="49"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G90" s="3"/>
+      <c r="G90" s="2"/>
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
+      <c r="A91" s="49"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B92" s="29" t="s">
+      <c r="B92" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D92" s="33" t="s">
+      <c r="D92" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E92" s="36" t="s">
+      <c r="E92" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F92" s="39" t="s">
+      <c r="F92" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G92" s="3"/>
+      <c r="G92" s="2"/>
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G93" s="3"/>
+      <c r="A93" s="49"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" s="2"/>
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="2"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="38" t="s">
+      <c r="A94" s="49"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="54" t="s">
+      <c r="A95" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="55"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="55"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="54"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" s="55"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="55"/>
-      <c r="G96" s="55"/>
+      <c r="A96" s="31"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="56" t="s">
+      <c r="A97" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B97" s="54" t="s">
+      <c r="B97" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E97" s="55"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="55"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="56"/>
-      <c r="B98" s="54"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="55"/>
-      <c r="F98" s="55"/>
-      <c r="G98" s="55"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="56"/>
-      <c r="B99" s="55" t="s">
+      <c r="A99" s="33"/>
+      <c r="B99" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="55"/>
-      <c r="F99" s="55"/>
-      <c r="G99" s="55"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="56"/>
-      <c r="B100" s="54" t="s">
+      <c r="A100" s="33"/>
+      <c r="B100" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E100" s="55"/>
-      <c r="F100" s="55"/>
-      <c r="G100" s="55"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="56"/>
-      <c r="B101" s="54"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="55"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="55"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="56"/>
-      <c r="B102" s="54"/>
-      <c r="C102" s="55" t="s">
+      <c r="A102" s="33"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D102" s="55"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="55"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="50" t="s">
+      <c r="A103" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="51"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="10" t="s">
+      <c r="A104" s="29"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="53" t="s">
+      <c r="A105" s="30" t="s">
         <v>70</v>
       </c>
       <c r="B105" t="s">
@@ -3074,30 +3010,30 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="53"/>
+      <c r="A106" s="30"/>
       <c r="B106" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="57" t="s">
+      <c r="A107" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B107" s="54" t="s">
+      <c r="B107" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D107" s="11" t="s">
+      <c r="D107" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="57"/>
-      <c r="B108" s="54"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="10" t="s">
+      <c r="A108" s="32"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3105,25 +3041,77 @@
       <c r="A109" t="s">
         <v>19</v>
       </c>
-      <c r="B109" s="52" t="s">
+      <c r="B109" s="25" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
     <mergeCell ref="F81:F82"/>
     <mergeCell ref="B92:B94"/>
     <mergeCell ref="C92:C94"/>
@@ -3136,180 +3124,26 @@
     <mergeCell ref="B89:B91"/>
     <mergeCell ref="C84:C85"/>
     <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="A107:A108"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A97" r:id="rId1" tooltip="Q2166659" display="https://www.wikidata.org/wiki/Q2166659"/>
-    <hyperlink ref="A105" r:id="rId2" tooltip="Q95945728" display="https://www.wikidata.org/wiki/Q95945728"/>
-    <hyperlink ref="A107" r:id="rId3" tooltip="Q455647" display="https://www.wikidata.org/wiki/Q455647"/>
-    <hyperlink ref="B109" r:id="rId4" tooltip="Q811430" display="https://www.wikidata.org/wiki/Q811430"/>
+    <hyperlink ref="A97" r:id="rId1" tooltip="Q2166659" display="https://www.wikidata.org/wiki/Q2166659" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A105" r:id="rId2" tooltip="Q95945728" display="https://www.wikidata.org/wiki/Q95945728" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A107" r:id="rId3" tooltip="Q455647" display="https://www.wikidata.org/wiki/Q455647" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B109" r:id="rId4" tooltip="Q811430" display="https://www.wikidata.org/wiki/Q811430" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>